--- a/backend/common/primary_data/深水埗区升学数据.xlsx
+++ b/backend/common/primary_data/深水埗区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15740" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="16640" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="郭怡雅神父紀念學校" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="394">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -1966,7 +1966,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
@@ -2054,13 +2054,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2220,14 +2213,14 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
-      <name val="微软雅黑"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
-      <name val="Helvetica Neue"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2627,28 +2620,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2657,118 +2653,115 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7554,7 +7547,7 @@
   <sheetPr codeName="聖方濟各英文小學"/>
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -13328,8 +13321,8 @@
   <sheetPr codeName="瑪利諾神父教會學校（小學部）"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -13355,9 +13348,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="1:5">
-      <c r="B2" t="s">
-        <v>105</v>
+    <row r="2" spans="1:5">
+      <c r="B2">
+        <v>2025</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
